--- a/DigitalNAO/Challenge3/Sprint1/Roadmap.xlsx
+++ b/DigitalNAO/Challenge3/Sprint1/Roadmap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xoch\Documents\TechnoReady\DigitalNAO\Challenge2\Sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xoch\Documents\TechnoReady\DigitalNAO\Challenge3\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA66597-20CD-4D5D-88CE-250FCD0D70EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9331E17F-9929-4D23-A6FC-37691D821F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9ED6F242-2327-4E65-AD40-85F1CF040479}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$K$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$H$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Day</t>
   </si>
@@ -68,41 +68,41 @@
     <t>Roadmap</t>
   </si>
   <si>
-    <t>Planing</t>
-  </si>
-  <si>
-    <t>Save CSV (initial version)</t>
-  </si>
-  <si>
-    <t>JSON validation</t>
-  </si>
-  <si>
-    <t>Save CSV with improvements</t>
-  </si>
-  <si>
-    <t>Graphical interface</t>
-  </si>
-  <si>
-    <t>Unit tests</t>
-  </si>
-  <si>
     <t>Saturday</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>JSON to CSV conversion (basic functionality)</t>
-  </si>
-  <si>
-    <t>JSON to CSV conversion (final)</t>
+    <t>Research the Google Scholar API</t>
+  </si>
+  <si>
+    <t>Set Up Development Environment</t>
+  </si>
+  <si>
+    <t>Design the MVC Application</t>
+  </si>
+  <si>
+    <t>Set Up Database</t>
+  </si>
+  <si>
+    <t>Design Database Schema</t>
+  </si>
+  <si>
+    <t>Integrate API Data</t>
+  </si>
+  <si>
+    <t>Create a Challenge Backlog</t>
+  </si>
+  <si>
+    <t>Set up a GitHub repository</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +128,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,61 +209,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,230 +622,222 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="11" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="8"/>
+    <col min="2" max="2" width="15.7109375" style="9" customWidth="1"/>
+    <col min="3" max="8" width="15.7109375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A2" s="2"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10">
+        <v>30</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>3</v>
+      </c>
+      <c r="G5" s="10">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1">
-        <v>24</v>
-      </c>
-      <c r="K5" s="1">
-        <v>25</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="D8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="D9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="H12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
+  <mergeCells count="13">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
